--- a/data/walls.xlsx
+++ b/data/walls.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annih\Documents\GitHub\DiddyBorg_Sensor_Fusion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B5A1D-63DB-4F3E-8205-356491D5F2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5776AD6-3FC2-4989-B0A0-596B88431305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2F41C9F2-2FA7-4C2B-8896-9E807F7386D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{2F41C9F2-2FA7-4C2B-8896-9E807F7386D6}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTOR_SPEED" sheetId="1" r:id="rId1"/>
-    <sheet name="WALLS" sheetId="2" r:id="rId2"/>
-    <sheet name="Configuration" sheetId="3" r:id="rId3"/>
+    <sheet name="Localization" sheetId="4" r:id="rId2"/>
+    <sheet name="WALLS" sheetId="2" r:id="rId3"/>
+    <sheet name="Configuration" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>second</t>
   </si>
@@ -85,6 +86,30 @@
   <si>
     <t>berarti kalau kecepatannya 1</t>
   </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>attitude</t>
+  </si>
+  <si>
+    <t>60,60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>x_sensors</t>
+  </si>
+  <si>
+    <t>QR_ID</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -231,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79654301-C6D9-422B-9485-ED0D2C9A3F3E}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1646,11 +1678,281 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4B6152-2A7C-4241-ADBE-C2620A70FAD1}">
+  <dimension ref="A3:V14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>47.55</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.5</v>
+      </c>
+      <c r="S5">
+        <v>5.75</v>
+      </c>
+      <c r="T5">
+        <v>11.65</v>
+      </c>
+      <c r="V5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>84</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>23.5</v>
+      </c>
+      <c r="S6">
+        <v>17.75</v>
+      </c>
+      <c r="T6">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>71.550000000000011</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>35.5</v>
+      </c>
+      <c r="S7">
+        <v>29.75</v>
+      </c>
+      <c r="T7">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>59.55</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>35.9</v>
+      </c>
+      <c r="R8">
+        <v>47.4</v>
+      </c>
+      <c r="S8">
+        <v>41.65</v>
+      </c>
+      <c r="T8">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>35.65</v>
+      </c>
+      <c r="P9">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>47.9</v>
+      </c>
+      <c r="R9">
+        <v>59.4</v>
+      </c>
+      <c r="S9">
+        <v>53.65</v>
+      </c>
+      <c r="T9">
+        <v>59.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>59.9</v>
+      </c>
+      <c r="R10">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="S10">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="T10">
+        <v>71.550000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>36</v>
+      </c>
+      <c r="Q11">
+        <v>72</v>
+      </c>
+      <c r="R11">
+        <v>84.2</v>
+      </c>
+      <c r="S11">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="T11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>35</v>
+      </c>
+      <c r="Q12">
+        <v>84</v>
+      </c>
+      <c r="R12">
+        <v>96.2</v>
+      </c>
+      <c r="S12">
+        <v>90.1</v>
+      </c>
+      <c r="T12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>96</v>
+      </c>
+      <c r="R13">
+        <v>108.2</v>
+      </c>
+      <c r="S13">
+        <v>102.1</v>
+      </c>
+      <c r="T13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC7CC6B-29C5-49FE-8606-6354E011CEA3}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F40"/>
+      <selection activeCell="A32" sqref="A32:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,12 +2703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A470F217-3D21-4AFE-866B-FE8C708EB0AB}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,8 +2898,8 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -2626,8 +2928,8 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2650,8 +2952,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>

--- a/data/walls.xlsx
+++ b/data/walls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annih\Documents\GitHub\DiddyBorg_Sensor_Fusion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5776AD6-3FC2-4989-B0A0-596B88431305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFE109-16C1-4A51-819B-5D7B019F6E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{2F41C9F2-2FA7-4C2B-8896-9E807F7386D6}"/>
   </bookViews>
